--- a/Examenvragen-2.xlsx
+++ b/Examenvragen-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederic/Documents/R/MKASummaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederic/Documents/R/Projects/MKASummaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC1908B-429F-E14F-AC3C-E1DFF459086A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD923F7-2461-684B-8E5D-AD160449CCBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37340" yWindow="6600" windowWidth="28040" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Examenvragen-2" sheetId="1" r:id="rId1"/>
@@ -559,7 +559,7 @@
     <t>#</t>
   </si>
   <si>
-    <t>[welke-criteria-bestaan-voor-een-extraorale-incisie-als-drainage-voor-dentoalveolaire-abcessen-in-de-onderkaak]</t>
+    <t>Welke criteria bestaan voor een extraorale incisie als drainage voor dentoalveolaire abcessen in de onderkaak</t>
   </si>
 </sst>
 </file>
@@ -1402,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Examenvragen-2.xlsx
+++ b/Examenvragen-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederic/Documents/R/Projects/MKASummaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD923F7-2461-684B-8E5D-AD160449CCBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4563F6-4682-0F4E-97D0-B7BB34223E47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37340" yWindow="6600" windowWidth="28040" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Examenvragen-2" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="213">
   <si>
     <t>Vraag</t>
   </si>
   <si>
-    <t>Letsels aan de nervus alveolaris interior bij mond of kaakchirurgische ingrepen: incidentie en onderzoek van de pati√´nt?</t>
-  </si>
-  <si>
-    <t>Bespreek de behandeling van een pati√´nt met dreigende obstructie van de luchtweg tengevolge van zwelling</t>
-  </si>
-  <si>
     <t>Hoe frequent treedt schade op van de nervus lingualis bij verwijdering van derde molaren in de onderkaak?</t>
   </si>
   <si>
@@ -52,21 +46,9 @@
     <t>Bespreek het verschil tussen een manifeste en een potentiele infectieuze focus en hoe zul je hiermee omgaan wanneer een kans bestaat op het ontwikkelen van endocarditis?</t>
   </si>
   <si>
-    <t>Hoe benader je de klacht van chronische pijn in de maxillaire sinus? Bespreek ook de differenti√´le diagnose van de mogelijke pathologie?</t>
-  </si>
-  <si>
     <t>Bespreek de indicaties voor tandkiemtransplantatie en geef enkele voorbeelden</t>
   </si>
   <si>
-    <t>Hoe zou jij de mond en het restgebit voorbereiden bij een pati√´nt die radiotherapie zal ondergaan?</t>
-  </si>
-  <si>
-    <t>Hoe zou jij de mond en het restgebit voorbereiden bij een pati√´nt die in het kader van een oncologische behandeling van botmetastasen met XGEVA (denosumab) gaat behandeld worden?</t>
-  </si>
-  <si>
-    <t>Bespreek het onderzoek en de behandeling van een pati√´nt met een zwelling in de sublinguale regio.</t>
-  </si>
-  <si>
     <t>Behandeling van dentoalveolaire infecties?</t>
   </si>
   <si>
@@ -109,9 +91,6 @@
     <t>Odontogene tumoren: classificatie, prognose en behandeling?</t>
   </si>
   <si>
-    <t>Bespreek de differenti√´le diagnose bij een zwelling in de halsregio</t>
-  </si>
-  <si>
     <t>Hoe zou jij een acute Ludwig's angina behandelen?</t>
   </si>
   <si>
@@ -130,9 +109,6 @@
     <t>Bespreek het gebruik van antibiotica bij electieve mond-, kaak-en aangezichtsheelkunde</t>
   </si>
   <si>
-    <t>Bespreek de implicaties voor de chirurg bij de behandeling van een HIV of een hepatitis B positieve high risk pati√´nt</t>
-  </si>
-  <si>
     <t>Etiologie en behandeling van infecties van de diepe cervicale ruimten.</t>
   </si>
   <si>
@@ -154,21 +130,9 @@
     <t>Welke oorzaken ken je die een beperkte mondopening tot gevolg hebben wegens een extra</t>
   </si>
   <si>
-    <t>Welke differenti√´le diagnose ken je voor een brandend gevoel in de tong?</t>
-  </si>
-  <si>
-    <t>Benoem de profylactische maatregelen die je toepast bij pati√´nten die radiotherapie ondergaan in de orofaciale regio</t>
-  </si>
-  <si>
-    <t>Bespreek de profylactische maatregelen die je treft bij pati√´nten die chemotherapie zullen ondergaan in de orofaciale regio</t>
-  </si>
-  <si>
     <t>Bespreek de orale manifestaties van AIDS</t>
   </si>
   <si>
-    <t>Bespreek de differenti√´le diagnose bij faciale neuralgie</t>
-  </si>
-  <si>
     <t>Hoe ontstaat schade aan de perifere zenuwen bij mond-, kaak-en aangezichtschirurgie? Welke diagnosemiddelen bestaan er? Welk is de prognose en de therapie?</t>
   </si>
   <si>
@@ -181,18 +145,12 @@
     <t>Hoe en wanneer zou een iatrogeen beschadigde nervus alveolaris inferior hersteld moeten worden?</t>
   </si>
   <si>
-    <t>Welke maatregelen neem je wanneer een pati√´nt een vreemd voorwerp geaspireerd heeft? Welke maatregelen wanneer hij een vreemd voorwerp doorgeslikt heeft?</t>
-  </si>
-  <si>
     <t>Hoe voer je een urgente cricothyrotomie uit?</t>
   </si>
   <si>
     <t>Bespreek de fysiologie van hemostase. Welke redenen of oorzaken voor congenitale hemorragische afwijkingen ken je en wat is preferentieel voor een behandeling?</t>
   </si>
   <si>
-    <t>Bespreek de tandheelkundige richtlijnen voor extracties bij pati√´nten onder bloedverdunners</t>
-  </si>
-  <si>
     <t>Hoe zou jij een acute allergische situatie behandelen?</t>
   </si>
   <si>
@@ -208,9 +166,6 @@
     <t>Bespreek voor-en nadelen van CT, danwel magnetisch resonantie-onderzoek bij het stageringsonderzoek van mondkanker</t>
   </si>
   <si>
-    <t>Welke differenti√´le diagnose ken je bij radiologische densiteitsverschillen in de onderkaak?</t>
-  </si>
-  <si>
     <t>Welke oppervlakkige veranderingen in de mondmucosa en welke onderliggende pathologie moet beoordeeld worden als precancereuze laesie of voorbeschikkend hiertoe?</t>
   </si>
   <si>
@@ -247,9 +202,6 @@
     <t>Bespreek de symptomen, de diagnose en de behandeling bij fracturen van het zygoma en de orbita</t>
   </si>
   <si>
-    <t>Bespreek de behandeling van onderkaaksfracturen in oudere tandeloze pati√´nten</t>
-  </si>
-  <si>
     <t>Bespreek de verwikkelingen die kunnen optreden bij onderkaakstracturen</t>
   </si>
   <si>
@@ -346,9 +298,6 @@
     <t>Bespreek de arthrotische aandoeningen van het kaakgewricht</t>
   </si>
   <si>
-    <t>Bespreek de habituele luxatie van het kaakgewricht. Hoe onderzoek je de pati√´nt en welke zijn de verschillende behandelmethoden?</t>
-  </si>
-  <si>
     <t>Bespreek de diagnose en de behandelmogelijkheden voor luxatie van de discus articularis in het kaakgewricht</t>
   </si>
   <si>
@@ -373,36 +322,24 @@
     <t>Bespreek de verwikkelingen die kunnen optreden bij bilaterale sagittale osteotomie van de opstijgende kaaktak.</t>
   </si>
   <si>
-    <t>Bespreek de verwikkelingen die kunnen optreden bij bovenkaaksosteotomie√´n op het niveau Le Fort I.</t>
-  </si>
-  <si>
     <t>Bespreek asymmetrie van het gelaat: de ontwikkelingsstoornissen en verworven afwijkingen</t>
   </si>
   <si>
     <t>Bespreek de principes die gebruikt worden bij het plannen van een osteotomie</t>
   </si>
   <si>
-    <t>Welke veranderingen treden op met betrekking tot de neus bij osteomie√´n van de bovenkaak, niveau Le Fort I?</t>
-  </si>
-  <si>
     <t>Welke factoren be√Ønvloeden de relaps bij orthognatische onderkaaksheelkunde?</t>
   </si>
   <si>
     <t>Bespreek de indicaties voor een sagittale splitsingsosteotomie van de onderkaak</t>
   </si>
   <si>
-    <t>Welke zijn de belangrijke punten, lijnen en hoeken die berekend kunnen warden bij een pati√´nt met kaakrelatie-afwijkingen? Welke rol spelen deze waarden bij het finale plan tot heelkunde?</t>
-  </si>
-  <si>
     <t>Welke veranderingen in het profiel warden teweeggebracht wanneer een bovenkaaks</t>
   </si>
   <si>
     <t>Welke zijn prognostisch goede, respectievelijk ongunstige technieken om een open beet te sluiten?</t>
   </si>
   <si>
-    <t>Welke gevolgen voor de spraak kunnen ontstaan bij bovenkaaksosteotomie√´n, type Le Fort I, waarbij het dentopalataal segment naar voor verplaatst wordt?</t>
-  </si>
-  <si>
     <t>Welke verwikkelingen kunnen ontstaan bij een verlengingsosteotomie van de onderkaak door middel van sagittale splitsing in de regio van de kaakhoeken?</t>
   </si>
   <si>
@@ -427,9 +364,6 @@
     <t>Bespreek de anatomische structuren en referentiepunten die belangrijk zijn bij het verwijderen van een onderkaaksspeekselklier</t>
   </si>
   <si>
-    <t>bespreek de hi√´rarchie van stabiliteit na orthognatische ingrepen</t>
-  </si>
-  <si>
     <t>bespreek het voorkomen en de  oorzaken van hypodontie</t>
   </si>
   <si>
@@ -526,9 +460,6 @@
     <t>Bespreek de effectieve stralingsdosis van een rx apicaal, een rx opg en een CBCT (kleine vs grote FOV)</t>
   </si>
   <si>
-    <t>Wat zijn de oorzaken van een moon-facies. Welke pati√´nten zijn ad risk?</t>
-  </si>
-  <si>
     <t>Bespreek de behandeling van fracturen van de achterwand van de sinus fontalis</t>
   </si>
   <si>
@@ -556,17 +487,185 @@
     <t>Cat</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>Welke criteria bestaan voor een extraorale incisie als drainage voor dentoalveolaire abcessen in de onderkaak</t>
+  </si>
+  <si>
+    <t>Nummer</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>[Link](#vraag21)</t>
+  </si>
+  <si>
+    <t>Letsels aan de nervus alveolaris interior bij mond of kaakchirurgische ingrepen: incidentie en onderzoek van de patiënt?</t>
+  </si>
+  <si>
+    <t>Bespreek de behandeling van een patiënt met dreigende obstructie van de luchtweg tengevolge van zwelling</t>
+  </si>
+  <si>
+    <t>Hoe benader je de klacht van chronische pijn in de maxillaire sinus? Bespreek ook de differentiële diagnose van de mogelijke pathologie?</t>
+  </si>
+  <si>
+    <t>Hoe zou jij de mond en het restgebit voorbereiden bij een patiënt die radiotherapie zal ondergaan?</t>
+  </si>
+  <si>
+    <t>Hoe zou jij de mond en het restgebit voorbereiden bij een patiënt die in het kader van een oncologische behandeling van botmetastasen met XGEVA (denosumab) gaat behandeld worden?</t>
+  </si>
+  <si>
+    <t>Bespreek het onderzoek en de behandeling van een patiënt met een zwelling in de sublinguale regio.</t>
+  </si>
+  <si>
+    <t>Bespreek de differentiële diagnose bij een zwelling in de halsregio</t>
+  </si>
+  <si>
+    <t>Bespreek de implicaties voor de chirurg bij de behandeling van een HIV of een hepatitis B positieve high risk patiënt</t>
+  </si>
+  <si>
+    <t>Welke differentiële diagnose ken je voor een brandend gevoel in de tong?</t>
+  </si>
+  <si>
+    <t>Benoem de profylactische maatregelen die je toepast bij patiënten die radiotherapie ondergaan in de orofaciale regio</t>
+  </si>
+  <si>
+    <t>Bespreek de profylactische maatregelen die je treft bij patiënten die chemotherapie zullen ondergaan in de orofaciale regio</t>
+  </si>
+  <si>
+    <t>Bespreek de differentiële diagnose bij faciale neuralgie</t>
+  </si>
+  <si>
+    <t>Welke maatregelen neem je wanneer een patiënt een vreemd voorwerp geaspireerd heeft? Welke maatregelen wanneer hij een vreemd voorwerp doorgeslikt heeft?</t>
+  </si>
+  <si>
+    <t>Bespreek de tandheelkundige richtlijnen voor extracties bij patiënten onder bloedverdunners</t>
+  </si>
+  <si>
+    <t>Welke differentiële diagnose ken je bij radiologische densiteitsverschillen in de onderkaak?</t>
+  </si>
+  <si>
+    <t>Bespreek de behandeling van onderkaaksfracturen in oudere tandeloze patiënten</t>
+  </si>
+  <si>
+    <t>Bespreek de habituele luxatie van het kaakgewricht. Hoe onderzoek je de patiënt en welke zijn de verschillende behandelmethoden?</t>
+  </si>
+  <si>
+    <t>Bespreek de verwikkelingen die kunnen optreden bij bovenkaaksosteotomieën op het niveau Le Fort I.</t>
+  </si>
+  <si>
+    <t>Welke veranderingen treden op met betrekking tot de neus bij osteomieën van de bovenkaak, niveau Le Fort I?</t>
+  </si>
+  <si>
+    <t>Welke zijn de belangrijke punten, lijnen en hoeken die berekend kunnen warden bij een patiënt met kaakrelatie-afwijkingen? Welke rol spelen deze waarden bij het finale plan tot heelkunde?</t>
+  </si>
+  <si>
+    <t>Welke gevolgen voor de spraak kunnen ontstaan bij bovenkaaksosteotomieën, type Le Fort I, waarbij het dentopalataal segment naar voor verplaatst wordt?</t>
+  </si>
+  <si>
+    <t>bespreek de hiërarchie van stabiliteit na orthognatische ingrepen</t>
+  </si>
+  <si>
+    <t>Wat zijn de oorzaken van een moon-facies. Welke patiënten zijn ad risk?</t>
+  </si>
+  <si>
+    <t>[Link](#vraag22)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag23)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag24)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag25)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag26)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag27)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag28)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag29)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag210)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag211)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag212)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag213)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag214)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag215)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag216)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag217)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag218)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag219)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag220)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag221)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag222)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag223)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag224)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag225)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag226)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag227)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag228)</t>
+  </si>
+  <si>
+    <t>[Link](#vraag229)</t>
+  </si>
+  <si>
+    <t>Infecties</t>
+  </si>
+  <si>
+    <t>Nervus</t>
+  </si>
+  <si>
+    <t>Dentoalveolair</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -697,6 +796,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1043,8 +1149,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1400,1439 +1507,1550 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>210</v>
+      </c>
       <c r="C2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="D2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
       <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
       <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
       <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="D12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="C35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="C37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="C38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="C39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="C40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="C41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="C42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="C43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="C44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="C45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="C46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="C47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="C48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="C49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="C50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="C51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="C52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="C53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="C54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="C55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="C56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="C57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="C58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="C59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="C60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="C61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="C62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="C63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="C64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="C65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="C66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="C67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="C68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="C69" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="C70" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="C71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="C72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="C73" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="C74" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="C75" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="C76" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="C77" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="C78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="C79" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="C80" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="C81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="C82" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="C83" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="C84" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="C85" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="C86" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="C87" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="C88" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="C89" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="C90" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="C91" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="C92" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="C93" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="C94" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="C95" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="C96" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="C97" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="C98" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="C99" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="C100" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="C101" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="C102" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="C103" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="C104" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="C105" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="C106" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="C107" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="C108" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="C109" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="C110" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="C111" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="C112" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="C113" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="C114" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="C115" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="C116" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="C117" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="C118" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="C119" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="C120" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="C121" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="C122" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="C123" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="C124" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="C125" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="C126" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="C127" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="C128" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="C129" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="C130" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="C131" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="C132" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="C133" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="C134" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="C135" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="C136" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="C137" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="C138" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="C139" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="C140" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="C141" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="C142" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="C143" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="C144" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="C145" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="C146" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="C147" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="C148" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="C149" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="C150" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="C151" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="C152" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="C153" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="C154" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="C155" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="C156" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="C157" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D157" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="C158" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D158" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="C159" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D159" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="C160" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="C161" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D161" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="C162" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D162" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="C163" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D163" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="C164" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D164" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="C165" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D165" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="C166" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D166" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="C167" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D167" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="C168" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D168" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="C169" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D169" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="C170" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="C171" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D171" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="C172" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D172" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="C173" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D173" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="C174" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D174" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="C175" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D175" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="C176" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D176" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="C177" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D177" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="C178" t="s">
-        <v>176</v>
+      <c r="D178" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
